--- a/outputs-GTDB-r202/f__Gastranaerophilaceae.xlsx
+++ b/outputs-GTDB-r202/f__Gastranaerophilaceae.xlsx
@@ -872,7 +872,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>g__UMGS1477</t>
+          <t>g__UMGS1477(reject)</t>
         </is>
       </c>
     </row>
